--- a/食物营养成分.xlsx
+++ b/食物营养成分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="11370"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>食物所含的营养成分（单位：千卡或克/每一百克）</t>
   </si>
@@ -37,24 +37,15 @@
     <t>鸡蛋</t>
   </si>
   <si>
-    <t>50g</t>
-  </si>
-  <si>
     <t>蛋清</t>
   </si>
   <si>
-    <t>100g</t>
-  </si>
-  <si>
     <t>雀巢优麦</t>
   </si>
   <si>
     <t>混合果干谷物燕麦</t>
   </si>
   <si>
-    <t>70g</t>
-  </si>
-  <si>
     <t>面包</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t>鸡胸肉</t>
   </si>
   <si>
-    <t>400g</t>
-  </si>
-  <si>
     <t>土豆</t>
   </si>
   <si>
@@ -91,28 +79,22 @@
     <t>金锣王中王无淀粉火腿肠</t>
   </si>
   <si>
-    <t>30g</t>
-  </si>
-  <si>
     <t>食用油</t>
   </si>
   <si>
-    <t>20g</t>
-  </si>
-  <si>
     <t>伊利益消酸奶</t>
   </si>
   <si>
     <t>增肌粉</t>
   </si>
   <si>
-    <t>80g</t>
-  </si>
-  <si>
     <t>安佳全脂奶粉</t>
   </si>
   <si>
     <t>安佳脱脂奶粉</t>
+  </si>
+  <si>
+    <t>总和</t>
   </si>
 </sst>
 </file>
@@ -121,11 +103,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +123,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -150,6 +139,128 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,128 +273,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -294,13 +283,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,163 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,17 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,15 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -538,6 +512,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,9 +557,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,17 +574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,137 +594,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,16 +1062,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="2"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:9">
@@ -1095,7 +1090,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1111,8 +1106,20 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1128,13 +1135,29 @@
       <c r="E3" s="2">
         <v>8.8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
+        <f>B3*0.5</f>
+        <v>72</v>
+      </c>
+      <c r="I3" s="2">
+        <f>C3*0.5</f>
+        <v>6.65</v>
+      </c>
+      <c r="J3" s="2">
+        <f>D3*0.5</f>
+        <v>1.4</v>
+      </c>
+      <c r="K3" s="2">
+        <f>E3*0.5</f>
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>60</v>
@@ -1148,13 +1171,25 @@
       <c r="E4" s="2">
         <v>0.1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>60</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>449</v>
@@ -1169,9 +1204,9 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>377</v>
@@ -1185,13 +1220,25 @@
       <c r="E6" s="2">
         <v>8.7</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>377</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>8.7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>312</v>
@@ -1206,9 +1253,9 @@
         <v>5.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>304</v>
@@ -1222,10 +1269,29 @@
       <c r="E8" s="2">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2">
+        <v>200</v>
+      </c>
+      <c r="H8" s="2">
+        <f>B8*2</f>
+        <v>608</v>
+      </c>
+      <c r="I8" s="2">
+        <f>C8*2</f>
+        <v>19.2</v>
+      </c>
+      <c r="J8" s="2">
+        <f>D8*2</f>
+        <v>103.2</v>
+      </c>
+      <c r="K8" s="2">
+        <f>E8*2</f>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>256</v>
@@ -1239,13 +1305,10 @@
       <c r="E9" s="2">
         <v>5.6</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>250</v>
@@ -1260,9 +1323,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>116</v>
@@ -1276,13 +1339,10 @@
       <c r="E11" s="2">
         <v>0.28</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>284</v>
@@ -1297,9 +1357,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>133</v>
@@ -1313,13 +1373,29 @@
       <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="2">
+        <v>400</v>
+      </c>
+      <c r="H13" s="2">
+        <f>B13*4</f>
+        <v>532</v>
+      </c>
+      <c r="I13" s="2">
+        <f>C13*4</f>
+        <v>77.6</v>
+      </c>
+      <c r="J13" s="2">
+        <f>D13*4</f>
+        <v>10</v>
+      </c>
+      <c r="K13" s="2">
+        <f>E13*4</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>76</v>
@@ -1333,13 +1409,29 @@
       <c r="E14" s="2">
         <v>0.2</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2">
+        <v>300</v>
+      </c>
+      <c r="H14" s="2">
+        <f>B14*3</f>
+        <v>228</v>
+      </c>
+      <c r="I14" s="2">
+        <f>C14*3</f>
+        <v>12</v>
+      </c>
+      <c r="J14" s="2">
+        <f>D14*3</f>
+        <v>49.5</v>
+      </c>
+      <c r="K14" s="2">
+        <f>E14*3</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>15</v>
@@ -1353,13 +1445,25 @@
       <c r="E15" s="2">
         <v>0.4</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>33</v>
@@ -1373,13 +1477,25 @@
       <c r="E16" s="2">
         <v>0.6</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>85</v>
@@ -1393,27 +1509,65 @@
       <c r="E17" s="2">
         <v>2.8</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="5">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5">
+        <f>B17*0.3</f>
+        <v>25.5</v>
+      </c>
+      <c r="I17" s="5">
+        <f>C17*0.3</f>
+        <v>1.74</v>
+      </c>
+      <c r="J17" s="5">
+        <f>D17*0.3</f>
+        <v>0.24</v>
+      </c>
+      <c r="K17" s="5">
+        <f>E17*0.3</f>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>900</v>
       </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
       <c r="E18" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2">
+        <f>B18*0.2</f>
+        <v>180</v>
+      </c>
+      <c r="I18" s="2">
+        <f>C18*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f>D18*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <f>E18*0.2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>288</v>
@@ -1427,13 +1581,29 @@
       <c r="E19" s="2">
         <v>2.7</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="5">
+        <v>100</v>
+      </c>
+      <c r="H19" s="5">
+        <f>B19</f>
+        <v>288</v>
+      </c>
+      <c r="I19" s="5">
+        <f>C19</f>
+        <v>2.5</v>
+      </c>
+      <c r="J19" s="5">
+        <f>D19</f>
+        <v>9.3</v>
+      </c>
+      <c r="K19" s="5">
+        <f>E19</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>388</v>
@@ -1447,13 +1617,29 @@
       <c r="E20" s="2">
         <v>3.2</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>30</v>
+      <c r="G20" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" s="2">
+        <f>B20*0.4</f>
+        <v>155.2</v>
+      </c>
+      <c r="I20" s="2">
+        <f>C20*0.4</f>
+        <v>11.4</v>
+      </c>
+      <c r="J20" s="2">
+        <f>D20*0.4</f>
+        <v>24</v>
+      </c>
+      <c r="K20" s="2">
+        <f>E20*0.4</f>
+        <v>1.28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>500</v>
@@ -1470,7 +1656,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
         <v>363</v>
@@ -1483,6 +1669,31 @@
       </c>
       <c r="E22" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11">
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2">
+        <f>G3+G4+G6+G9+G11+G13+G14+G15+G16+G17+G18+G19+G20</f>
+        <v>1340</v>
+      </c>
+      <c r="H23" s="2">
+        <f>H3+H4+H5+H6+H7+H8+H9+H10+H11+H12+H13+H14+H15+H16+H17+H18+H19+H20+H21+H22</f>
+        <v>2573.7</v>
+      </c>
+      <c r="I23" s="2">
+        <f>I3+I4+I5+I6+I7+I8+I9+I10+I11+I12+I13+I14+I15+I16+I17+I18+I19+I20+I21+I22</f>
+        <v>158.29</v>
+      </c>
+      <c r="J23" s="2">
+        <f>J3+J4+J5+J6+J7+J8+J9+J10+J11+J12+J13+J14+J15+J16+J17+J18+J19+J20+J21+J22</f>
+        <v>264.44</v>
+      </c>
+      <c r="K23" s="2">
+        <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12+K13+K14+K15+K16+K17+K18+K19+K20+K21+K22</f>
+        <v>70.82</v>
       </c>
     </row>
   </sheetData>

--- a/食物营养成分.xlsx
+++ b/食物营养成分.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>食物所含的营养成分（单位：千卡或克/每一百克）</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>安佳脱脂奶粉</t>
+  </si>
+  <si>
+    <t>安佳全脂牛奶</t>
   </si>
   <si>
     <t>总和</t>
@@ -102,12 +105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +133,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -144,8 +153,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +177,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,8 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +260,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -220,21 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,37 +282,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -289,6 +298,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,13 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,151 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,11 +486,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,45 +566,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -569,8 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,149 +591,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +750,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -1570,35 +1582,35 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>288</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D19" s="2">
-        <v>9.3</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="G19" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="G19" s="6">
         <v>100</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <f>B19</f>
-        <v>288</v>
-      </c>
-      <c r="I19" s="5">
+        <v>85</v>
+      </c>
+      <c r="I19" s="6">
         <f>C19</f>
-        <v>2.5</v>
-      </c>
-      <c r="J19" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="J19" s="6">
         <f>D19</f>
-        <v>9.3</v>
-      </c>
-      <c r="K19" s="5">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6">
         <f>E19</f>
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1671,29 +1683,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:11">
-      <c r="F23" s="2" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="2">
+      <c r="B23" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11">
+      <c r="F24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2">
         <f>G3+G4+G6+G9+G11+G13+G14+G15+G16+G17+G18+G19+G20</f>
         <v>1340</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <f>H3+H4+H5+H6+H7+H8+H9+H10+H11+H12+H13+H14+H15+H16+H17+H18+H19+H20+H21+H22</f>
-        <v>2573.7</v>
-      </c>
-      <c r="I23" s="2">
+        <v>2370.7</v>
+      </c>
+      <c r="I24" s="2">
         <f>I3+I4+I5+I6+I7+I8+I9+I10+I11+I12+I13+I14+I15+I16+I17+I18+I19+I20+I21+I22</f>
-        <v>158.29</v>
-      </c>
-      <c r="J23" s="2">
+        <v>158.59</v>
+      </c>
+      <c r="J24" s="2">
         <f>J3+J4+J5+J6+J7+J8+J9+J10+J11+J12+J13+J14+J15+J16+J17+J18+J19+J20+J21+J22</f>
-        <v>264.44</v>
-      </c>
-      <c r="K23" s="2">
+        <v>266.14</v>
+      </c>
+      <c r="K24" s="2">
         <f>K3+K4+K5+K6+K7+K8+K9+K10+K11+K12+K13+K14+K15+K16+K17+K18+K19+K20+K21+K22</f>
-        <v>70.82</v>
+        <v>71.42</v>
       </c>
     </row>
   </sheetData>
